--- a/Excels/detection results.xlsx
+++ b/Excels/detection results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjieli/Desktop/ImMut-site/ImMut/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjieli/Desktop/ImMut/ImMut/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="27420" windowHeight="16580" activeTab="1"/>
+    <workbookView xWindow="1480" yWindow="1420" windowWidth="19720" windowHeight="16580"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs-ImMut" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="285">
   <si>
     <t>App name</t>
   </si>
@@ -1149,6 +1149,14 @@
   </si>
   <si>
     <t>Slide4Reddit</t>
+  </si>
+  <si>
+    <t>TP?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1582,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1979,10 +1987,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
@@ -2220,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2242,7 +2250,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>161</v>
@@ -3011,7 +3019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>

--- a/Excels/detection results.xlsx
+++ b/Excels/detection results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1420" windowWidth="19720" windowHeight="16580"/>
+    <workbookView xWindow="-1100" yWindow="2460" windowWidth="19720" windowHeight="16580"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs-ImMut" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="286">
   <si>
     <t>App name</t>
   </si>
@@ -1152,6 +1152,10 @@
   </si>
   <si>
     <t>TP?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1590,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2095,7 +2099,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
